--- a/Base/base.xlsx
+++ b/Base/base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital House\Integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital House\Integrador\grupo_3_bodegaAndalhue\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1B10A7-BF6D-44A6-8783-FF3708F1124C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD15AD5-0064-4B52-B4C5-732C5BECE1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{79523D40-1E26-4D2E-9F29-62FF75529E09}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360" xr2:uid="{79523D40-1E26-4D2E-9F29-62FF75529E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>products</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>value</t>
   </si>
   <si>
     <t>vintage</t>
@@ -565,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB7342D-05FF-4738-982D-EF8D9864A7A1}">
   <dimension ref="B3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,18 +598,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -621,127 +618,127 @@
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -749,12 +746,12 @@
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
@@ -762,7 +759,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
@@ -770,7 +767,7 @@
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
@@ -805,7 +802,7 @@
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Base/base.xlsx
+++ b/Base/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital House\Integrador\grupo_3_bodegaAndalhue\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD15AD5-0064-4B52-B4C5-732C5BECE1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C14DD2-AA8B-46C2-A2E7-64EBB775C890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360" xr2:uid="{79523D40-1E26-4D2E-9F29-62FF75529E09}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>products</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>temperature_id (FK)</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="B3:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +805,7 @@
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Base/base.xlsx
+++ b/Base/base.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital House\Integrador\grupo_3_bodegaAndalhue\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Node\Proyecto Integrador\grupo_3_bodegaAndalhue\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD15AD5-0064-4B52-B4C5-732C5BECE1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360" xr2:uid="{79523D40-1E26-4D2E-9F29-62FF75529E09}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>products</t>
   </si>
@@ -154,12 +153,15 @@
   </si>
   <si>
     <t>temperature_id (FK)</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,12 +561,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB7342D-05FF-4738-982D-EF8D9864A7A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -802,7 +802,7 @@
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Base/base.xlsx
+++ b/Base/base.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Node\Proyecto Integrador\grupo_3_bodegaAndalhue\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital House\Integrador\grupo_3_bodegaAndalhue\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406CB4DF-6B54-41A1-BF0A-F218F250EA9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>products</t>
   </si>
@@ -156,14 +157,25 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>estado: 1 abierto/0 cerrado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -242,12 +254,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +574,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -735,6 +750,9 @@
       <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -743,6 +761,7 @@
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">

--- a/Base/base.xlsx
+++ b/Base/base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital House\Integrador\grupo_3_bodegaAndalhue\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406CB4DF-6B54-41A1-BF0A-F218F250EA9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF754C-249E-4DAB-B4D3-1AB57AE6C572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>products</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>estado: 1 abierto/0 cerrado</t>
+  </si>
+  <si>
+    <t>rol</t>
   </si>
 </sst>
 </file>
@@ -254,13 +257,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,14 +744,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" t="s">
@@ -761,6 +765,9 @@
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -775,6 +782,7 @@
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
